--- a/data/BCRA Tasa de interés de depósitos a PF entre 30 y 59 días moneda nacional TRIMESTRAL (1980 a 2021).xlsx
+++ b/data/BCRA Tasa de interés de depósitos a PF entre 30 y 59 días moneda nacional TRIMESTRAL (1980 a 2021).xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive-113626893456251289633/Mi unidad/UCA Sincronizado/UCA Proyecto de TESIS/Estadísticas/BCRA Estadísticas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive-113626893456251289633/Mi unidad/UCA Sincronizado/UCA Proyecto de TESIS/Estadísticas/Github/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA8475E9-F2A1-4141-9DCF-692BF08CADFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98B849B-8D5F-FA43-9050-F56A934558C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-26800" yWindow="-2080" windowWidth="25940" windowHeight="13420" xr2:uid="{7946B2AC-F490-904D-9B79-B3AAD7E96CF4}"/>
   </bookViews>
@@ -102,11 +102,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Cambiar to&amp;do" xfId="1" xr:uid="{A085B65A-F32C-314D-B6C9-FAF8FD6EB138}"/>
@@ -443,8 +444,8 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="2">
-        <v>1980.01</v>
+      <c r="A2" s="4">
+        <v>1980</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -454,8 +455,8 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="2">
-        <v>1980.01</v>
+      <c r="A3" s="4">
+        <v>1980</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -465,8 +466,8 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="2">
-        <v>1980.01</v>
+      <c r="A4" s="4">
+        <v>1980</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -476,8 +477,8 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="2">
-        <v>1980.01</v>
+      <c r="A5" s="4">
+        <v>1980</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -487,8 +488,8 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="2">
-        <v>1981.01</v>
+      <c r="A6" s="4">
+        <v>1981</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -498,8 +499,8 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="2">
-        <v>1981.01</v>
+      <c r="A7" s="4">
+        <v>1981</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -509,8 +510,8 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="2">
-        <v>1981.01</v>
+      <c r="A8" s="4">
+        <v>1981</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -520,8 +521,8 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="2">
-        <v>1981.01</v>
+      <c r="A9" s="4">
+        <v>1981</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
@@ -531,8 +532,8 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="2">
-        <v>1982.01</v>
+      <c r="A10" s="4">
+        <v>1982</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
@@ -542,8 +543,8 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="2">
-        <v>1982.01</v>
+      <c r="A11" s="4">
+        <v>1982</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -553,85 +554,71 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="2">
-        <v>1982.01</v>
+      <c r="A12" s="4">
+        <v>1982</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="3">
-        <v>0</v>
-      </c>
+      <c r="C12" s="3"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="2">
-        <v>1982.01</v>
+      <c r="A13" s="4">
+        <v>1982</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="3">
-        <v>0</v>
-      </c>
+      <c r="C13" s="3"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="2">
-        <v>1983.01</v>
+      <c r="A14" s="4">
+        <v>1983</v>
       </c>
       <c r="B14" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="3">
-        <v>0</v>
-      </c>
+      <c r="C14" s="3"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="2">
-        <v>1983.01</v>
+      <c r="A15" s="4">
+        <v>1983</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="3">
-        <v>0</v>
-      </c>
+      <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="2">
-        <v>1983.01</v>
+      <c r="A16" s="4">
+        <v>1983</v>
       </c>
       <c r="B16" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="3">
-        <v>0</v>
-      </c>
+      <c r="C16" s="3"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="2">
-        <v>1983.01</v>
+      <c r="A17" s="4">
+        <v>1983</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="3">
-        <v>0</v>
-      </c>
+      <c r="C17" s="3"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="2">
-        <v>1984.01</v>
+      <c r="A18" s="4">
+        <v>1984</v>
       </c>
       <c r="B18" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="3">
-        <v>0</v>
-      </c>
+      <c r="C18" s="3"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="2">
-        <v>1984.01</v>
+      <c r="A19" s="4">
+        <v>1984</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
@@ -641,8 +628,8 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="2">
-        <v>1984.01</v>
+      <c r="A20" s="4">
+        <v>1984</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
@@ -652,8 +639,8 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="2">
-        <v>1984.01</v>
+      <c r="A21" s="4">
+        <v>1984</v>
       </c>
       <c r="B21" t="s">
         <v>5</v>
@@ -663,8 +650,8 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="2">
-        <v>1985.01</v>
+      <c r="A22" s="4">
+        <v>1985</v>
       </c>
       <c r="B22" t="s">
         <v>2</v>
@@ -674,8 +661,8 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="2">
-        <v>1985.01</v>
+      <c r="A23" s="4">
+        <v>1985</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
@@ -685,8 +672,8 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="2">
-        <v>1985.01</v>
+      <c r="A24" s="4">
+        <v>1985</v>
       </c>
       <c r="B24" t="s">
         <v>4</v>
@@ -696,8 +683,8 @@
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="2">
-        <v>1985.01</v>
+      <c r="A25" s="4">
+        <v>1985</v>
       </c>
       <c r="B25" t="s">
         <v>5</v>
@@ -707,8 +694,8 @@
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="2">
-        <v>1986.01</v>
+      <c r="A26" s="4">
+        <v>1986</v>
       </c>
       <c r="B26" t="s">
         <v>2</v>
@@ -718,8 +705,8 @@
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="2">
-        <v>1986.01</v>
+      <c r="A27" s="4">
+        <v>1986</v>
       </c>
       <c r="B27" t="s">
         <v>3</v>
@@ -729,8 +716,8 @@
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="2">
-        <v>1986.01</v>
+      <c r="A28" s="4">
+        <v>1986</v>
       </c>
       <c r="B28" t="s">
         <v>4</v>
@@ -740,8 +727,8 @@
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="2">
-        <v>1986.01</v>
+      <c r="A29" s="4">
+        <v>1986</v>
       </c>
       <c r="B29" t="s">
         <v>5</v>
@@ -751,8 +738,8 @@
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="2">
-        <v>1987.01</v>
+      <c r="A30" s="4">
+        <v>1987</v>
       </c>
       <c r="B30" t="s">
         <v>2</v>
@@ -762,8 +749,8 @@
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="2">
-        <v>1987.01</v>
+      <c r="A31" s="4">
+        <v>1987</v>
       </c>
       <c r="B31" t="s">
         <v>3</v>
@@ -773,8 +760,8 @@
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="2">
-        <v>1987.01</v>
+      <c r="A32" s="4">
+        <v>1987</v>
       </c>
       <c r="B32" t="s">
         <v>4</v>
@@ -784,8 +771,8 @@
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="2">
-        <v>1987.01</v>
+      <c r="A33" s="4">
+        <v>1987</v>
       </c>
       <c r="B33" t="s">
         <v>5</v>
@@ -795,8 +782,8 @@
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="2">
-        <v>1988.01</v>
+      <c r="A34" s="4">
+        <v>1988</v>
       </c>
       <c r="B34" t="s">
         <v>2</v>
@@ -806,8 +793,8 @@
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="2">
-        <v>1988.01</v>
+      <c r="A35" s="4">
+        <v>1988</v>
       </c>
       <c r="B35" t="s">
         <v>3</v>
@@ -817,8 +804,8 @@
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="2">
-        <v>1988.01</v>
+      <c r="A36" s="4">
+        <v>1988</v>
       </c>
       <c r="B36" t="s">
         <v>4</v>
@@ -828,8 +815,8 @@
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="2">
-        <v>1988.01</v>
+      <c r="A37" s="4">
+        <v>1988</v>
       </c>
       <c r="B37" t="s">
         <v>5</v>
@@ -839,8 +826,8 @@
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="2">
-        <v>1989.01</v>
+      <c r="A38" s="4">
+        <v>1989</v>
       </c>
       <c r="B38" t="s">
         <v>2</v>
@@ -850,8 +837,8 @@
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="2">
-        <v>1989.01</v>
+      <c r="A39" s="4">
+        <v>1989</v>
       </c>
       <c r="B39" t="s">
         <v>3</v>
@@ -861,8 +848,8 @@
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="2">
-        <v>1989.01</v>
+      <c r="A40" s="4">
+        <v>1989</v>
       </c>
       <c r="B40" t="s">
         <v>4</v>
@@ -872,8 +859,8 @@
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="2">
-        <v>1989.01</v>
+      <c r="A41" s="4">
+        <v>1989</v>
       </c>
       <c r="B41" t="s">
         <v>5</v>
@@ -883,19 +870,17 @@
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="2">
-        <v>1990.01</v>
+      <c r="A42" s="4">
+        <v>1990</v>
       </c>
       <c r="B42" t="s">
         <v>2</v>
       </c>
-      <c r="C42" s="3" t="e">
-        <v>#DIV/0!</v>
-      </c>
+      <c r="C42" s="3"/>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="2">
-        <v>1990.01</v>
+      <c r="A43" s="4">
+        <v>1990</v>
       </c>
       <c r="B43" t="s">
         <v>3</v>
@@ -905,8 +890,8 @@
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="2">
-        <v>1990.01</v>
+      <c r="A44" s="4">
+        <v>1990</v>
       </c>
       <c r="B44" t="s">
         <v>4</v>
@@ -916,8 +901,8 @@
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="2">
-        <v>1990.01</v>
+      <c r="A45" s="4">
+        <v>1990</v>
       </c>
       <c r="B45" t="s">
         <v>5</v>
@@ -927,8 +912,8 @@
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="2">
-        <v>1991.01</v>
+      <c r="A46" s="4">
+        <v>1991</v>
       </c>
       <c r="B46" t="s">
         <v>2</v>
@@ -938,8 +923,8 @@
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="2">
-        <v>1991.01</v>
+      <c r="A47" s="4">
+        <v>1991</v>
       </c>
       <c r="B47" t="s">
         <v>3</v>
@@ -949,8 +934,8 @@
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="2">
-        <v>1991.01</v>
+      <c r="A48" s="4">
+        <v>1991</v>
       </c>
       <c r="B48" t="s">
         <v>4</v>
@@ -960,8 +945,8 @@
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="2">
-        <v>1991.01</v>
+      <c r="A49" s="4">
+        <v>1991</v>
       </c>
       <c r="B49" t="s">
         <v>5</v>
@@ -971,8 +956,8 @@
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="2">
-        <v>1992.01</v>
+      <c r="A50" s="4">
+        <v>1992</v>
       </c>
       <c r="B50" t="s">
         <v>2</v>
@@ -982,8 +967,8 @@
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="2">
-        <v>1992.01</v>
+      <c r="A51" s="4">
+        <v>1992</v>
       </c>
       <c r="B51" t="s">
         <v>3</v>
@@ -993,8 +978,8 @@
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="2">
-        <v>1992.01</v>
+      <c r="A52" s="4">
+        <v>1992</v>
       </c>
       <c r="B52" t="s">
         <v>4</v>
@@ -1004,8 +989,8 @@
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="2">
-        <v>1992.01</v>
+      <c r="A53" s="4">
+        <v>1992</v>
       </c>
       <c r="B53" t="s">
         <v>5</v>
@@ -1015,8 +1000,8 @@
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="2">
-        <v>1993.01</v>
+      <c r="A54" s="4">
+        <v>1993</v>
       </c>
       <c r="B54" t="s">
         <v>2</v>
@@ -1026,8 +1011,8 @@
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="2">
-        <v>1993.01</v>
+      <c r="A55" s="4">
+        <v>1993</v>
       </c>
       <c r="B55" t="s">
         <v>3</v>
@@ -1037,8 +1022,8 @@
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="2">
-        <v>1993.01</v>
+      <c r="A56" s="4">
+        <v>1993</v>
       </c>
       <c r="B56" t="s">
         <v>4</v>
@@ -1048,8 +1033,8 @@
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="2">
-        <v>1993.01</v>
+      <c r="A57" s="4">
+        <v>1993</v>
       </c>
       <c r="B57" t="s">
         <v>5</v>
@@ -1059,8 +1044,8 @@
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="2">
-        <v>1994.01</v>
+      <c r="A58" s="4">
+        <v>1994</v>
       </c>
       <c r="B58" t="s">
         <v>2</v>
@@ -1070,8 +1055,8 @@
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="2">
-        <v>1994.01</v>
+      <c r="A59" s="4">
+        <v>1994</v>
       </c>
       <c r="B59" t="s">
         <v>3</v>
@@ -1081,8 +1066,8 @@
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="2">
-        <v>1994.01</v>
+      <c r="A60" s="4">
+        <v>1994</v>
       </c>
       <c r="B60" t="s">
         <v>4</v>
@@ -1092,8 +1077,8 @@
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="2">
-        <v>1994.01</v>
+      <c r="A61" s="4">
+        <v>1994</v>
       </c>
       <c r="B61" t="s">
         <v>5</v>
@@ -1103,8 +1088,8 @@
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="2">
-        <v>1995.01</v>
+      <c r="A62" s="4">
+        <v>1995</v>
       </c>
       <c r="B62" t="s">
         <v>2</v>
@@ -1114,8 +1099,8 @@
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="2">
-        <v>1995.01</v>
+      <c r="A63" s="4">
+        <v>1995</v>
       </c>
       <c r="B63" t="s">
         <v>3</v>
@@ -1125,8 +1110,8 @@
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="2">
-        <v>1995.01</v>
+      <c r="A64" s="4">
+        <v>1995</v>
       </c>
       <c r="B64" t="s">
         <v>4</v>
@@ -1136,8 +1121,8 @@
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="2">
-        <v>1995.01</v>
+      <c r="A65" s="4">
+        <v>1995</v>
       </c>
       <c r="B65" t="s">
         <v>5</v>
@@ -1147,8 +1132,8 @@
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="2">
-        <v>1996.01</v>
+      <c r="A66" s="4">
+        <v>1996</v>
       </c>
       <c r="B66" t="s">
         <v>2</v>
@@ -1158,8 +1143,8 @@
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="2">
-        <v>1996.01</v>
+      <c r="A67" s="4">
+        <v>1996</v>
       </c>
       <c r="B67" t="s">
         <v>3</v>
@@ -1169,8 +1154,8 @@
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="2">
-        <v>1996.01</v>
+      <c r="A68" s="4">
+        <v>1996</v>
       </c>
       <c r="B68" t="s">
         <v>4</v>
@@ -1180,8 +1165,8 @@
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="2">
-        <v>1996.01</v>
+      <c r="A69" s="4">
+        <v>1996</v>
       </c>
       <c r="B69" t="s">
         <v>5</v>
@@ -1191,8 +1176,8 @@
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="2">
-        <v>1997.01</v>
+      <c r="A70" s="4">
+        <v>1997</v>
       </c>
       <c r="B70" t="s">
         <v>2</v>
@@ -1202,8 +1187,8 @@
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="2">
-        <v>1997.01</v>
+      <c r="A71" s="4">
+        <v>1997</v>
       </c>
       <c r="B71" t="s">
         <v>3</v>
@@ -1213,8 +1198,8 @@
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="2">
-        <v>1997.01</v>
+      <c r="A72" s="4">
+        <v>1997</v>
       </c>
       <c r="B72" t="s">
         <v>4</v>
@@ -1224,8 +1209,8 @@
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="2">
-        <v>1997.01</v>
+      <c r="A73" s="4">
+        <v>1997</v>
       </c>
       <c r="B73" t="s">
         <v>5</v>
@@ -1235,8 +1220,8 @@
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="2">
-        <v>1998.01</v>
+      <c r="A74" s="4">
+        <v>1998</v>
       </c>
       <c r="B74" t="s">
         <v>2</v>
@@ -1246,8 +1231,8 @@
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="2">
-        <v>1998.01</v>
+      <c r="A75" s="4">
+        <v>1998</v>
       </c>
       <c r="B75" t="s">
         <v>3</v>
@@ -1257,8 +1242,8 @@
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="2">
-        <v>1998.01</v>
+      <c r="A76" s="4">
+        <v>1998</v>
       </c>
       <c r="B76" t="s">
         <v>4</v>
@@ -1268,8 +1253,8 @@
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="2">
-        <v>1998.01</v>
+      <c r="A77" s="4">
+        <v>1998</v>
       </c>
       <c r="B77" t="s">
         <v>5</v>
@@ -1279,8 +1264,8 @@
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="2">
-        <v>1999.01</v>
+      <c r="A78" s="4">
+        <v>1999</v>
       </c>
       <c r="B78" t="s">
         <v>2</v>
@@ -1290,8 +1275,8 @@
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="2">
-        <v>1999.01</v>
+      <c r="A79" s="4">
+        <v>1999</v>
       </c>
       <c r="B79" t="s">
         <v>3</v>
@@ -1301,8 +1286,8 @@
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="2">
-        <v>1999.01</v>
+      <c r="A80" s="4">
+        <v>1999</v>
       </c>
       <c r="B80" t="s">
         <v>4</v>
@@ -1312,8 +1297,8 @@
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="2">
-        <v>1999.01</v>
+      <c r="A81" s="4">
+        <v>1999</v>
       </c>
       <c r="B81" t="s">
         <v>5</v>
@@ -1323,8 +1308,8 @@
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="2">
-        <v>2000.01</v>
+      <c r="A82" s="4">
+        <v>2000</v>
       </c>
       <c r="B82" t="s">
         <v>2</v>
@@ -1334,8 +1319,8 @@
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="2">
-        <v>2000.01</v>
+      <c r="A83" s="4">
+        <v>2000</v>
       </c>
       <c r="B83" t="s">
         <v>3</v>
@@ -1345,8 +1330,8 @@
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="2">
-        <v>2000.01</v>
+      <c r="A84" s="4">
+        <v>2000</v>
       </c>
       <c r="B84" t="s">
         <v>4</v>
@@ -1356,8 +1341,8 @@
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="2">
-        <v>2000.01</v>
+      <c r="A85" s="4">
+        <v>2000</v>
       </c>
       <c r="B85" t="s">
         <v>5</v>
@@ -1367,8 +1352,8 @@
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="2">
-        <v>2001.01</v>
+      <c r="A86" s="4">
+        <v>2001</v>
       </c>
       <c r="B86" t="s">
         <v>2</v>
@@ -1378,8 +1363,8 @@
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="2">
-        <v>2001.01</v>
+      <c r="A87" s="4">
+        <v>2001</v>
       </c>
       <c r="B87" t="s">
         <v>3</v>
@@ -1389,8 +1374,8 @@
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="2">
-        <v>2001.01</v>
+      <c r="A88" s="4">
+        <v>2001</v>
       </c>
       <c r="B88" t="s">
         <v>4</v>
@@ -1400,8 +1385,8 @@
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="2">
-        <v>2001.01</v>
+      <c r="A89" s="4">
+        <v>2001</v>
       </c>
       <c r="B89" t="s">
         <v>5</v>
@@ -1411,8 +1396,8 @@
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="2">
-        <v>2002.01</v>
+      <c r="A90" s="4">
+        <v>2002</v>
       </c>
       <c r="B90" t="s">
         <v>2</v>
@@ -1422,8 +1407,8 @@
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="2">
-        <v>2002.01</v>
+      <c r="A91" s="4">
+        <v>2002</v>
       </c>
       <c r="B91" t="s">
         <v>3</v>
@@ -1433,8 +1418,8 @@
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="2">
-        <v>2002.01</v>
+      <c r="A92" s="4">
+        <v>2002</v>
       </c>
       <c r="B92" t="s">
         <v>4</v>
@@ -1444,8 +1429,8 @@
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="2">
-        <v>2002.01</v>
+      <c r="A93" s="4">
+        <v>2002</v>
       </c>
       <c r="B93" t="s">
         <v>5</v>
@@ -1455,8 +1440,8 @@
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="2">
-        <v>2003.01</v>
+      <c r="A94" s="4">
+        <v>2003</v>
       </c>
       <c r="B94" t="s">
         <v>2</v>
@@ -1466,8 +1451,8 @@
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="2">
-        <v>2003.01</v>
+      <c r="A95" s="4">
+        <v>2003</v>
       </c>
       <c r="B95" t="s">
         <v>3</v>
@@ -1477,8 +1462,8 @@
       </c>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" s="2">
-        <v>2003.01</v>
+      <c r="A96" s="4">
+        <v>2003</v>
       </c>
       <c r="B96" t="s">
         <v>4</v>
@@ -1488,8 +1473,8 @@
       </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="2">
-        <v>2003.01</v>
+      <c r="A97" s="4">
+        <v>2003</v>
       </c>
       <c r="B97" t="s">
         <v>5</v>
@@ -1499,8 +1484,8 @@
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="2">
-        <v>2004.01</v>
+      <c r="A98" s="4">
+        <v>2004</v>
       </c>
       <c r="B98" t="s">
         <v>2</v>
@@ -1510,8 +1495,8 @@
       </c>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" s="2">
-        <v>2004.01</v>
+      <c r="A99" s="4">
+        <v>2004</v>
       </c>
       <c r="B99" t="s">
         <v>3</v>
@@ -1521,8 +1506,8 @@
       </c>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" s="2">
-        <v>2004.01</v>
+      <c r="A100" s="4">
+        <v>2004</v>
       </c>
       <c r="B100" t="s">
         <v>4</v>
@@ -1532,8 +1517,8 @@
       </c>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101" s="2">
-        <v>2004.01</v>
+      <c r="A101" s="4">
+        <v>2004</v>
       </c>
       <c r="B101" t="s">
         <v>5</v>
@@ -1543,8 +1528,8 @@
       </c>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" s="2">
-        <v>2005.01</v>
+      <c r="A102" s="4">
+        <v>2005</v>
       </c>
       <c r="B102" t="s">
         <v>2</v>
@@ -1554,8 +1539,8 @@
       </c>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" s="2">
-        <v>2005.01</v>
+      <c r="A103" s="4">
+        <v>2005</v>
       </c>
       <c r="B103" t="s">
         <v>3</v>
@@ -1565,8 +1550,8 @@
       </c>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" s="2">
-        <v>2005.01</v>
+      <c r="A104" s="4">
+        <v>2005</v>
       </c>
       <c r="B104" t="s">
         <v>4</v>
@@ -1576,8 +1561,8 @@
       </c>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" s="2">
-        <v>2005.01</v>
+      <c r="A105" s="4">
+        <v>2005</v>
       </c>
       <c r="B105" t="s">
         <v>5</v>
@@ -1587,8 +1572,8 @@
       </c>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" s="2">
-        <v>2006.01</v>
+      <c r="A106" s="4">
+        <v>2006</v>
       </c>
       <c r="B106" t="s">
         <v>2</v>
@@ -1598,8 +1583,8 @@
       </c>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" s="2">
-        <v>2006.01</v>
+      <c r="A107" s="4">
+        <v>2006</v>
       </c>
       <c r="B107" t="s">
         <v>3</v>
@@ -1609,8 +1594,8 @@
       </c>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108" s="2">
-        <v>2006.01</v>
+      <c r="A108" s="4">
+        <v>2006</v>
       </c>
       <c r="B108" t="s">
         <v>4</v>
@@ -1620,8 +1605,8 @@
       </c>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109" s="2">
-        <v>2006.01</v>
+      <c r="A109" s="4">
+        <v>2006</v>
       </c>
       <c r="B109" t="s">
         <v>5</v>
@@ -1631,8 +1616,8 @@
       </c>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110" s="2">
-        <v>2007.01</v>
+      <c r="A110" s="4">
+        <v>2007</v>
       </c>
       <c r="B110" t="s">
         <v>2</v>
@@ -1642,8 +1627,8 @@
       </c>
     </row>
     <row r="111" spans="1:3">
-      <c r="A111" s="2">
-        <v>2007.01</v>
+      <c r="A111" s="4">
+        <v>2007</v>
       </c>
       <c r="B111" t="s">
         <v>3</v>
@@ -1653,8 +1638,8 @@
       </c>
     </row>
     <row r="112" spans="1:3">
-      <c r="A112" s="2">
-        <v>2007.01</v>
+      <c r="A112" s="4">
+        <v>2007</v>
       </c>
       <c r="B112" t="s">
         <v>4</v>
@@ -1664,8 +1649,8 @@
       </c>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" s="2">
-        <v>2007.01</v>
+      <c r="A113" s="4">
+        <v>2007</v>
       </c>
       <c r="B113" t="s">
         <v>5</v>
@@ -1675,8 +1660,8 @@
       </c>
     </row>
     <row r="114" spans="1:3">
-      <c r="A114" s="2">
-        <v>2008.01</v>
+      <c r="A114" s="4">
+        <v>2008</v>
       </c>
       <c r="B114" t="s">
         <v>2</v>
@@ -1686,8 +1671,8 @@
       </c>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115" s="2">
-        <v>2008.01</v>
+      <c r="A115" s="4">
+        <v>2008</v>
       </c>
       <c r="B115" t="s">
         <v>3</v>
@@ -1697,8 +1682,8 @@
       </c>
     </row>
     <row r="116" spans="1:3">
-      <c r="A116" s="2">
-        <v>2008.01</v>
+      <c r="A116" s="4">
+        <v>2008</v>
       </c>
       <c r="B116" t="s">
         <v>4</v>
@@ -1708,8 +1693,8 @@
       </c>
     </row>
     <row r="117" spans="1:3">
-      <c r="A117" s="2">
-        <v>2008.01</v>
+      <c r="A117" s="4">
+        <v>2008</v>
       </c>
       <c r="B117" t="s">
         <v>5</v>
@@ -1719,8 +1704,8 @@
       </c>
     </row>
     <row r="118" spans="1:3">
-      <c r="A118" s="2">
-        <v>2009.01</v>
+      <c r="A118" s="4">
+        <v>2009</v>
       </c>
       <c r="B118" t="s">
         <v>2</v>
@@ -1730,8 +1715,8 @@
       </c>
     </row>
     <row r="119" spans="1:3">
-      <c r="A119" s="2">
-        <v>2009.01</v>
+      <c r="A119" s="4">
+        <v>2009</v>
       </c>
       <c r="B119" t="s">
         <v>3</v>
@@ -1741,8 +1726,8 @@
       </c>
     </row>
     <row r="120" spans="1:3">
-      <c r="A120" s="2">
-        <v>2009.01</v>
+      <c r="A120" s="4">
+        <v>2009</v>
       </c>
       <c r="B120" t="s">
         <v>4</v>
@@ -1752,8 +1737,8 @@
       </c>
     </row>
     <row r="121" spans="1:3">
-      <c r="A121" s="2">
-        <v>2009.01</v>
+      <c r="A121" s="4">
+        <v>2009</v>
       </c>
       <c r="B121" t="s">
         <v>5</v>
@@ -1763,8 +1748,8 @@
       </c>
     </row>
     <row r="122" spans="1:3">
-      <c r="A122" s="2">
-        <v>2010.01</v>
+      <c r="A122" s="4">
+        <v>2010</v>
       </c>
       <c r="B122" t="s">
         <v>2</v>
@@ -1774,8 +1759,8 @@
       </c>
     </row>
     <row r="123" spans="1:3">
-      <c r="A123" s="2">
-        <v>2010.01</v>
+      <c r="A123" s="4">
+        <v>2010</v>
       </c>
       <c r="B123" t="s">
         <v>3</v>
@@ -1785,8 +1770,8 @@
       </c>
     </row>
     <row r="124" spans="1:3">
-      <c r="A124" s="2">
-        <v>2010.01</v>
+      <c r="A124" s="4">
+        <v>2010</v>
       </c>
       <c r="B124" t="s">
         <v>4</v>
@@ -1796,8 +1781,8 @@
       </c>
     </row>
     <row r="125" spans="1:3">
-      <c r="A125" s="2">
-        <v>2010.01</v>
+      <c r="A125" s="4">
+        <v>2010</v>
       </c>
       <c r="B125" t="s">
         <v>5</v>
@@ -1807,8 +1792,8 @@
       </c>
     </row>
     <row r="126" spans="1:3">
-      <c r="A126" s="2">
-        <v>2011.01</v>
+      <c r="A126" s="4">
+        <v>2011</v>
       </c>
       <c r="B126" t="s">
         <v>2</v>
@@ -1818,8 +1803,8 @@
       </c>
     </row>
     <row r="127" spans="1:3">
-      <c r="A127" s="2">
-        <v>2011.01</v>
+      <c r="A127" s="4">
+        <v>2011</v>
       </c>
       <c r="B127" t="s">
         <v>3</v>
@@ -1829,8 +1814,8 @@
       </c>
     </row>
     <row r="128" spans="1:3">
-      <c r="A128" s="2">
-        <v>2011.01</v>
+      <c r="A128" s="4">
+        <v>2011</v>
       </c>
       <c r="B128" t="s">
         <v>4</v>
@@ -1840,8 +1825,8 @@
       </c>
     </row>
     <row r="129" spans="1:3">
-      <c r="A129" s="2">
-        <v>2011.01</v>
+      <c r="A129" s="4">
+        <v>2011</v>
       </c>
       <c r="B129" t="s">
         <v>5</v>
@@ -1851,8 +1836,8 @@
       </c>
     </row>
     <row r="130" spans="1:3">
-      <c r="A130" s="2">
-        <v>2012.01</v>
+      <c r="A130" s="4">
+        <v>2012</v>
       </c>
       <c r="B130" t="s">
         <v>2</v>
@@ -1862,8 +1847,8 @@
       </c>
     </row>
     <row r="131" spans="1:3">
-      <c r="A131" s="2">
-        <v>2012.01</v>
+      <c r="A131" s="4">
+        <v>2012</v>
       </c>
       <c r="B131" t="s">
         <v>3</v>
@@ -1873,8 +1858,8 @@
       </c>
     </row>
     <row r="132" spans="1:3">
-      <c r="A132" s="2">
-        <v>2012.01</v>
+      <c r="A132" s="4">
+        <v>2012</v>
       </c>
       <c r="B132" t="s">
         <v>4</v>
@@ -1884,8 +1869,8 @@
       </c>
     </row>
     <row r="133" spans="1:3">
-      <c r="A133" s="2">
-        <v>2012.01</v>
+      <c r="A133" s="4">
+        <v>2012</v>
       </c>
       <c r="B133" t="s">
         <v>5</v>
@@ -1895,8 +1880,8 @@
       </c>
     </row>
     <row r="134" spans="1:3">
-      <c r="A134" s="2">
-        <v>2013.01</v>
+      <c r="A134" s="4">
+        <v>2013</v>
       </c>
       <c r="B134" t="s">
         <v>2</v>
@@ -1906,8 +1891,8 @@
       </c>
     </row>
     <row r="135" spans="1:3">
-      <c r="A135" s="2">
-        <v>2013.01</v>
+      <c r="A135" s="4">
+        <v>2013</v>
       </c>
       <c r="B135" t="s">
         <v>3</v>
@@ -1917,8 +1902,8 @@
       </c>
     </row>
     <row r="136" spans="1:3">
-      <c r="A136" s="2">
-        <v>2013.01</v>
+      <c r="A136" s="4">
+        <v>2013</v>
       </c>
       <c r="B136" t="s">
         <v>4</v>
@@ -1928,8 +1913,8 @@
       </c>
     </row>
     <row r="137" spans="1:3">
-      <c r="A137" s="2">
-        <v>2013.01</v>
+      <c r="A137" s="4">
+        <v>2013</v>
       </c>
       <c r="B137" t="s">
         <v>5</v>
@@ -1939,8 +1924,8 @@
       </c>
     </row>
     <row r="138" spans="1:3">
-      <c r="A138" s="2">
-        <v>2014.01</v>
+      <c r="A138" s="4">
+        <v>2014</v>
       </c>
       <c r="B138" t="s">
         <v>2</v>
@@ -1950,8 +1935,8 @@
       </c>
     </row>
     <row r="139" spans="1:3">
-      <c r="A139" s="2">
-        <v>2014.01</v>
+      <c r="A139" s="4">
+        <v>2014</v>
       </c>
       <c r="B139" t="s">
         <v>3</v>
@@ -1961,8 +1946,8 @@
       </c>
     </row>
     <row r="140" spans="1:3">
-      <c r="A140" s="2">
-        <v>2014.01</v>
+      <c r="A140" s="4">
+        <v>2014</v>
       </c>
       <c r="B140" t="s">
         <v>4</v>
@@ -1972,8 +1957,8 @@
       </c>
     </row>
     <row r="141" spans="1:3">
-      <c r="A141" s="2">
-        <v>2014.01</v>
+      <c r="A141" s="4">
+        <v>2014</v>
       </c>
       <c r="B141" t="s">
         <v>5</v>
@@ -1983,8 +1968,8 @@
       </c>
     </row>
     <row r="142" spans="1:3">
-      <c r="A142" s="2">
-        <v>2015.01</v>
+      <c r="A142" s="4">
+        <v>2015</v>
       </c>
       <c r="B142" t="s">
         <v>2</v>
@@ -1994,8 +1979,8 @@
       </c>
     </row>
     <row r="143" spans="1:3">
-      <c r="A143" s="2">
-        <v>2015.01</v>
+      <c r="A143" s="4">
+        <v>2015</v>
       </c>
       <c r="B143" t="s">
         <v>3</v>
@@ -2005,8 +1990,8 @@
       </c>
     </row>
     <row r="144" spans="1:3">
-      <c r="A144" s="2">
-        <v>2015.01</v>
+      <c r="A144" s="4">
+        <v>2015</v>
       </c>
       <c r="B144" t="s">
         <v>4</v>
@@ -2016,8 +2001,8 @@
       </c>
     </row>
     <row r="145" spans="1:3">
-      <c r="A145" s="2">
-        <v>2015.01</v>
+      <c r="A145" s="4">
+        <v>2015</v>
       </c>
       <c r="B145" t="s">
         <v>5</v>
@@ -2027,8 +2012,8 @@
       </c>
     </row>
     <row r="146" spans="1:3">
-      <c r="A146" s="2">
-        <v>2016.01</v>
+      <c r="A146" s="4">
+        <v>2016</v>
       </c>
       <c r="B146" t="s">
         <v>2</v>
@@ -2038,8 +2023,8 @@
       </c>
     </row>
     <row r="147" spans="1:3">
-      <c r="A147" s="2">
-        <v>2016.01</v>
+      <c r="A147" s="4">
+        <v>2016</v>
       </c>
       <c r="B147" t="s">
         <v>3</v>
@@ -2049,8 +2034,8 @@
       </c>
     </row>
     <row r="148" spans="1:3">
-      <c r="A148" s="2">
-        <v>2016.01</v>
+      <c r="A148" s="4">
+        <v>2016</v>
       </c>
       <c r="B148" t="s">
         <v>4</v>
@@ -2060,8 +2045,8 @@
       </c>
     </row>
     <row r="149" spans="1:3">
-      <c r="A149" s="2">
-        <v>2016.01</v>
+      <c r="A149" s="4">
+        <v>2016</v>
       </c>
       <c r="B149" t="s">
         <v>5</v>
@@ -2071,8 +2056,8 @@
       </c>
     </row>
     <row r="150" spans="1:3">
-      <c r="A150" s="2">
-        <v>2017.01</v>
+      <c r="A150" s="4">
+        <v>2017</v>
       </c>
       <c r="B150" t="s">
         <v>2</v>
@@ -2082,8 +2067,8 @@
       </c>
     </row>
     <row r="151" spans="1:3">
-      <c r="A151" s="2">
-        <v>2017.01</v>
+      <c r="A151" s="4">
+        <v>2017</v>
       </c>
       <c r="B151" t="s">
         <v>3</v>
@@ -2093,8 +2078,8 @@
       </c>
     </row>
     <row r="152" spans="1:3">
-      <c r="A152" s="2">
-        <v>2017.01</v>
+      <c r="A152" s="4">
+        <v>2017</v>
       </c>
       <c r="B152" t="s">
         <v>4</v>
@@ -2104,8 +2089,8 @@
       </c>
     </row>
     <row r="153" spans="1:3">
-      <c r="A153" s="2">
-        <v>2017.01</v>
+      <c r="A153" s="4">
+        <v>2017</v>
       </c>
       <c r="B153" t="s">
         <v>5</v>
@@ -2115,8 +2100,8 @@
       </c>
     </row>
     <row r="154" spans="1:3">
-      <c r="A154" s="2">
-        <v>2018.01</v>
+      <c r="A154" s="4">
+        <v>2018</v>
       </c>
       <c r="B154" t="s">
         <v>2</v>
@@ -2126,8 +2111,8 @@
       </c>
     </row>
     <row r="155" spans="1:3">
-      <c r="A155" s="2">
-        <v>2018.01</v>
+      <c r="A155" s="4">
+        <v>2018</v>
       </c>
       <c r="B155" t="s">
         <v>3</v>
@@ -2137,8 +2122,8 @@
       </c>
     </row>
     <row r="156" spans="1:3">
-      <c r="A156" s="2">
-        <v>2018.01</v>
+      <c r="A156" s="4">
+        <v>2018</v>
       </c>
       <c r="B156" t="s">
         <v>4</v>
@@ -2148,8 +2133,8 @@
       </c>
     </row>
     <row r="157" spans="1:3">
-      <c r="A157" s="2">
-        <v>2018.01</v>
+      <c r="A157" s="4">
+        <v>2018</v>
       </c>
       <c r="B157" t="s">
         <v>5</v>
@@ -2159,8 +2144,8 @@
       </c>
     </row>
     <row r="158" spans="1:3">
-      <c r="A158" s="2">
-        <v>2019.01</v>
+      <c r="A158" s="4">
+        <v>2019</v>
       </c>
       <c r="B158" t="s">
         <v>2</v>
@@ -2170,8 +2155,8 @@
       </c>
     </row>
     <row r="159" spans="1:3">
-      <c r="A159" s="2">
-        <v>2019.01</v>
+      <c r="A159" s="4">
+        <v>2019</v>
       </c>
       <c r="B159" t="s">
         <v>3</v>
@@ -2181,8 +2166,8 @@
       </c>
     </row>
     <row r="160" spans="1:3">
-      <c r="A160" s="2">
-        <v>2019.01</v>
+      <c r="A160" s="4">
+        <v>2019</v>
       </c>
       <c r="B160" t="s">
         <v>4</v>
@@ -2192,8 +2177,8 @@
       </c>
     </row>
     <row r="161" spans="1:3">
-      <c r="A161" s="2">
-        <v>2019.01</v>
+      <c r="A161" s="4">
+        <v>2019</v>
       </c>
       <c r="B161" t="s">
         <v>5</v>
@@ -2203,8 +2188,8 @@
       </c>
     </row>
     <row r="162" spans="1:3">
-      <c r="A162" s="2">
-        <v>2020.01</v>
+      <c r="A162" s="4">
+        <v>2020</v>
       </c>
       <c r="B162" t="s">
         <v>2</v>
@@ -2214,8 +2199,8 @@
       </c>
     </row>
     <row r="163" spans="1:3">
-      <c r="A163" s="2">
-        <v>2020.01</v>
+      <c r="A163" s="4">
+        <v>2020</v>
       </c>
       <c r="B163" t="s">
         <v>3</v>
@@ -2225,8 +2210,8 @@
       </c>
     </row>
     <row r="164" spans="1:3">
-      <c r="A164" s="2">
-        <v>2020.01</v>
+      <c r="A164" s="4">
+        <v>2020</v>
       </c>
       <c r="B164" t="s">
         <v>4</v>
@@ -2236,8 +2221,8 @@
       </c>
     </row>
     <row r="165" spans="1:3">
-      <c r="A165" s="2">
-        <v>2020.01</v>
+      <c r="A165" s="4">
+        <v>2020</v>
       </c>
       <c r="B165" t="s">
         <v>5</v>
@@ -2247,8 +2232,8 @@
       </c>
     </row>
     <row r="166" spans="1:3">
-      <c r="A166" s="2">
-        <v>2021.01</v>
+      <c r="A166" s="4">
+        <v>2021</v>
       </c>
       <c r="B166" t="s">
         <v>2</v>
@@ -2258,8 +2243,8 @@
       </c>
     </row>
     <row r="167" spans="1:3">
-      <c r="A167" s="2">
-        <v>2021.01</v>
+      <c r="A167" s="4">
+        <v>2021</v>
       </c>
       <c r="B167" t="s">
         <v>3</v>
@@ -2269,8 +2254,8 @@
       </c>
     </row>
     <row r="168" spans="1:3">
-      <c r="A168" s="2">
-        <v>2021.01</v>
+      <c r="A168" s="4">
+        <v>2021</v>
       </c>
       <c r="B168" t="s">
         <v>4</v>
@@ -2280,8 +2265,8 @@
       </c>
     </row>
     <row r="169" spans="1:3">
-      <c r="A169" s="2">
-        <v>2021.01</v>
+      <c r="A169" s="4">
+        <v>2021</v>
       </c>
       <c r="B169" t="s">
         <v>5</v>

--- a/data/BCRA Tasa de interés de depósitos a PF entre 30 y 59 días moneda nacional TRIMESTRAL (1980 a 2021).xlsx
+++ b/data/BCRA Tasa de interés de depósitos a PF entre 30 y 59 días moneda nacional TRIMESTRAL (1980 a 2021).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive-113626893456251289633/Mi unidad/UCA Sincronizado/UCA Proyecto de TESIS/Estadísticas/Github/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98B849B-8D5F-FA43-9050-F56A934558C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D321D4DE-C19C-FC48-BA66-52BDE4B00FD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-26800" yWindow="-2080" windowWidth="25940" windowHeight="13420" xr2:uid="{7946B2AC-F490-904D-9B79-B3AAD7E96CF4}"/>
   </bookViews>
@@ -63,7 +63,7 @@
     <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="0.00_ ;\-0.00\ "/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -79,6 +79,14 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -102,12 +110,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Cambiar to&amp;do" xfId="1" xr:uid="{A085B65A-F32C-314D-B6C9-FAF8FD6EB138}"/>
@@ -425,7 +434,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2056660C-F0E5-9041-8C3F-89AF32049C6C}">
   <dimension ref="A1:C170"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -444,7 +455,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="4">
+      <c r="A2" s="5">
         <v>1980</v>
       </c>
       <c r="B2" t="s">
